--- a/contratos/contratos-9-2009.xlsx
+++ b/contratos/contratos-9-2009.xlsx
@@ -433,7 +433,7 @@
     <t>CONCEPCION MATERIALES S.A.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LANDI YOLANDA TERESA Y LANDI JOSE OMAR S.H.</t>
@@ -475,10 +475,10 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>ALBA OMAR MARIA</t>
@@ -724,292 +724,292 @@
     <t>51</t>
   </si>
   <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>236,00</t>
-  </si>
-  <si>
-    <t>112.497,50</t>
-  </si>
-  <si>
-    <t>76,00</t>
-  </si>
-  <si>
-    <t>11.453,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>36.300,00</t>
-  </si>
-  <si>
-    <t>24,38</t>
-  </si>
-  <si>
-    <t>17.786,46</t>
-  </si>
-  <si>
-    <t>21.599,98</t>
-  </si>
-  <si>
-    <t>49.183,20</t>
-  </si>
-  <si>
-    <t>536,40</t>
-  </si>
-  <si>
-    <t>22.280,97</t>
-  </si>
-  <si>
-    <t>4.425,85</t>
-  </si>
-  <si>
-    <t>469,20</t>
-  </si>
-  <si>
-    <t>6.843,77</t>
-  </si>
-  <si>
-    <t>689,52</t>
-  </si>
-  <si>
-    <t>313,32</t>
-  </si>
-  <si>
-    <t>213,00</t>
-  </si>
-  <si>
-    <t>33,74</t>
-  </si>
-  <si>
-    <t>699,00</t>
-  </si>
-  <si>
-    <t>222,07</t>
-  </si>
-  <si>
-    <t>151,24</t>
-  </si>
-  <si>
-    <t>2.126,56</t>
-  </si>
-  <si>
-    <t>474,36</t>
-  </si>
-  <si>
-    <t>196,00</t>
-  </si>
-  <si>
-    <t>1.027,60</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>25.200,00</t>
-  </si>
-  <si>
-    <t>826,69</t>
-  </si>
-  <si>
-    <t>10,50</t>
-  </si>
-  <si>
-    <t>22,22</t>
-  </si>
-  <si>
-    <t>57,68</t>
-  </si>
-  <si>
-    <t>4.214,05</t>
-  </si>
-  <si>
-    <t>205,00</t>
-  </si>
-  <si>
-    <t>2.416,00</t>
-  </si>
-  <si>
-    <t>3.192,00</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>157,50</t>
-  </si>
-  <si>
-    <t>207,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>219,58</t>
-  </si>
-  <si>
-    <t>1.102,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>12.117,40</t>
-  </si>
-  <si>
-    <t>1.170,00</t>
-  </si>
-  <si>
-    <t>3.972,00</t>
-  </si>
-  <si>
-    <t>778,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>330,20</t>
-  </si>
-  <si>
-    <t>1.095,00</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>653,80</t>
-  </si>
-  <si>
-    <t>370,00</t>
-  </si>
-  <si>
-    <t>4.693,00</t>
-  </si>
-  <si>
-    <t>834,75</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>173,71</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>126,05</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>9.695,90</t>
-  </si>
-  <si>
-    <t>204,40</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>552,50</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>1.424,83</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>8.520,50</t>
-  </si>
-  <si>
-    <t>339,30</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>6.656,95</t>
-  </si>
-  <si>
-    <t>439,04</t>
-  </si>
-  <si>
-    <t>19.923,00</t>
-  </si>
-  <si>
-    <t>477,00</t>
-  </si>
-  <si>
-    <t>917,42</t>
-  </si>
-  <si>
-    <t>7.539,86</t>
-  </si>
-  <si>
-    <t>2.842,00</t>
-  </si>
-  <si>
-    <t>4.192,50</t>
-  </si>
-  <si>
-    <t>896,59</t>
-  </si>
-  <si>
-    <t>2.965,71</t>
-  </si>
-  <si>
-    <t>944,16</t>
-  </si>
-  <si>
-    <t>403.840,04</t>
-  </si>
-  <si>
-    <t>81.000,00</t>
-  </si>
-  <si>
-    <t>56,00</t>
-  </si>
-  <si>
-    <t>894,00</t>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>236.00</t>
+  </si>
+  <si>
+    <t>112497.50</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>11453.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>36300.00</t>
+  </si>
+  <si>
+    <t>24.38</t>
+  </si>
+  <si>
+    <t>17786.46</t>
+  </si>
+  <si>
+    <t>21599.98</t>
+  </si>
+  <si>
+    <t>49183.20</t>
+  </si>
+  <si>
+    <t>536.40</t>
+  </si>
+  <si>
+    <t>22280.97</t>
+  </si>
+  <si>
+    <t>4425.85</t>
+  </si>
+  <si>
+    <t>469.20</t>
+  </si>
+  <si>
+    <t>6843.77</t>
+  </si>
+  <si>
+    <t>689.52</t>
+  </si>
+  <si>
+    <t>313.32</t>
+  </si>
+  <si>
+    <t>213.00</t>
+  </si>
+  <si>
+    <t>33.74</t>
+  </si>
+  <si>
+    <t>699.00</t>
+  </si>
+  <si>
+    <t>222.07</t>
+  </si>
+  <si>
+    <t>151.24</t>
+  </si>
+  <si>
+    <t>2126.56</t>
+  </si>
+  <si>
+    <t>474.36</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>1027.60</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>826.69</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>22.22</t>
+  </si>
+  <si>
+    <t>57.68</t>
+  </si>
+  <si>
+    <t>4214.05</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>2416.00</t>
+  </si>
+  <si>
+    <t>3192.00</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>157.50</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>219.58</t>
+  </si>
+  <si>
+    <t>1102.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>12117.40</t>
+  </si>
+  <si>
+    <t>1170.00</t>
+  </si>
+  <si>
+    <t>3972.00</t>
+  </si>
+  <si>
+    <t>778.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>330.20</t>
+  </si>
+  <si>
+    <t>1095.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>653.80</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>4693.00</t>
+  </si>
+  <si>
+    <t>834.75</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>173.71</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>126.05</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>9695.90</t>
+  </si>
+  <si>
+    <t>204.40</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>552.50</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>1424.83</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>8520.50</t>
+  </si>
+  <si>
+    <t>339.30</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>6656.95</t>
+  </si>
+  <si>
+    <t>439.04</t>
+  </si>
+  <si>
+    <t>19923.00</t>
+  </si>
+  <si>
+    <t>477.00</t>
+  </si>
+  <si>
+    <t>917.42</t>
+  </si>
+  <si>
+    <t>7539.86</t>
+  </si>
+  <si>
+    <t>2842.00</t>
+  </si>
+  <si>
+    <t>4192.50</t>
+  </si>
+  <si>
+    <t>896.59</t>
+  </si>
+  <si>
+    <t>2965.71</t>
+  </si>
+  <si>
+    <t>944.16</t>
+  </si>
+  <si>
+    <t>403840.04</t>
+  </si>
+  <si>
+    <t>81000.00</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>894.00</t>
   </si>
 </sst>
 </file>
